--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_IMNST_TESTDATA_VS.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_IMNST_TESTDATA_VS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\APTProject_WorkSpace\APTproject\src\com\colt\qa\datalibrary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKathiresan-ADM\git\APTAutomation\APTAutomationProject\src\com\colt\qa\datalibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="IMSNT" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>Operation</t>
   </si>
@@ -111,24 +110,12 @@
     <t>filePath</t>
   </si>
   <si>
-    <t>E:/eclipse-workspace/APT_CreateAccessCoreDevice/src/numbertranslation.csv</t>
-  </si>
-  <si>
-    <t>E:/APTProject_WorkSpace/APTproject/src/numbertranslation.csv</t>
-  </si>
-  <si>
-    <t>Absolute path</t>
-  </si>
-  <si>
     <t>UK</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>385</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -141,12 +128,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>387</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -157,6 +138,21 @@
   </si>
   <si>
     <t>BR</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>38521</t>
+  </si>
+  <si>
+    <t>38522</t>
+  </si>
+  <si>
+    <t>38523</t>
+  </si>
+  <si>
+    <t>C:/Users/SKathiresan-ADM/git/APTAutomation/APTAutomationProject/numbertranslation.csv</t>
   </si>
 </sst>
 </file>
@@ -478,9 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -501,7 +495,7 @@
     <col min="16" max="16" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="73.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="87.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -543,10 +537,10 @@
         <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>18</v>
@@ -566,7 +560,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -578,13 +572,13 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
@@ -620,12 +614,12 @@
         <v>10</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -637,13 +631,13 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>8</v>
@@ -664,13 +658,13 @@
         <v>10</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>11</v>
@@ -679,12 +673,12 @@
         <v>10</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -696,13 +690,13 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>8</v>
@@ -723,13 +717,13 @@
         <v>10</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>11</v>
@@ -738,37 +732,11 @@
         <v>10</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="73.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_IMNST_TESTDATA_VS.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_IMNST_TESTDATA_VS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKathiresan-ADM\git\APTAutomation\APTAutomationProject\src\com\colt\qa\datalibrary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APT_phase1_deliverable24082020\APTAutomationProject\src\com\colt\qa\datalibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>Operation</t>
   </si>
@@ -125,9 +125,6 @@
     <t>sequence</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -140,19 +137,16 @@
     <t>BR</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>38521</t>
-  </si>
-  <si>
     <t>38522</t>
   </si>
   <si>
     <t>38523</t>
   </si>
   <si>
-    <t>C:/Users/SKathiresan-ADM/git/APTAutomation/APTAutomationProject/numbertranslation.csv</t>
+    <t>D:/APT_phase1_deliverable24082020/APTAutomationProject/src/numbertranslation.csv</t>
+  </si>
+  <si>
+    <t>48539</t>
   </si>
 </sst>
 </file>
@@ -572,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -614,7 +608,7 @@
         <v>10</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -631,13 +625,13 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>8</v>
@@ -658,7 +652,7 @@
         <v>10</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>11</v>
@@ -673,12 +667,12 @@
         <v>10</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -690,13 +684,13 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>8</v>
@@ -717,7 +711,7 @@
         <v>10</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>11</v>
@@ -732,7 +726,7 @@
         <v>10</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_IMNST_TESTDATA_VS.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_IMNST_TESTDATA_VS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>Operation</t>
   </si>
@@ -140,13 +140,16 @@
     <t>38522</t>
   </si>
   <si>
-    <t>38523</t>
-  </si>
-  <si>
     <t>D:/APT_phase1_deliverable24082020/APTAutomationProject/src/numbertranslation.csv</t>
   </si>
   <si>
     <t>48539</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8924555</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -554,7 +559,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -566,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -608,12 +613,12 @@
         <v>10</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -667,7 +672,7 @@
         <v>10</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -684,13 +689,13 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>8</v>
@@ -726,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_IMNST_TESTDATA_VS.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_IMNST_TESTDATA_VS.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APT_phase1_deliverable24082020\APTAutomationProject\src\com\colt\qa\datalibrary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APT_Phase1_Automation_Project_Deliverables\APTAutomationProject\src\com\colt\qa\datalibrary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15780" windowHeight="3630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14430" windowHeight="5955"/>
   </bookViews>
   <sheets>
     <sheet name="IMSNT" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="43">
   <si>
     <t>Operation</t>
   </si>
@@ -50,9 +50,6 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>SE</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>Run</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>APT_VoiceService</t>
   </si>
   <si>
@@ -110,12 +104,6 @@
     <t>filePath</t>
   </si>
   <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -128,28 +116,43 @@
     <t>7</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>BR</t>
-  </si>
-  <si>
-    <t>38522</t>
-  </si>
-  <si>
-    <t>D:/APT_phase1_deliverable24082020/APTAutomationProject/src/numbertranslation.csv</t>
-  </si>
-  <si>
-    <t>48539</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t>8924555</t>
+    <t>url for the Product</t>
+  </si>
+  <si>
+    <t>D:/APT_Phase1_Automation_Project_Deliverables/APTAutomationProject/src/numbertranslation.csv</t>
+  </si>
+  <si>
+    <t>4864312</t>
+  </si>
+  <si>
+    <t>4864412</t>
+  </si>
+  <si>
+    <t>4864512</t>
+  </si>
+  <si>
+    <t>4864612</t>
+  </si>
+  <si>
+    <t>4864712</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>c5</t>
   </si>
 </sst>
 </file>
@@ -165,12 +168,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -185,10 +194,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,16 +504,16 @@
     <col min="16" max="16" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="87.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="93.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -515,54 +525,54 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -571,57 +581,57 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -630,57 +640,57 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -689,49 +699,167 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>38</v>
+      <c r="H5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_IMNST_TESTDATA_VS.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_IMNST_TESTDATA_VS.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="IMSNT" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="47">
   <si>
     <t>Operation</t>
   </si>
@@ -116,50 +117,62 @@
     <t>7</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>url for the Product</t>
   </si>
   <si>
     <t>D:/APT_Phase1_Automation_Project_Deliverables/APTAutomationProject/src/numbertranslation.csv</t>
   </si>
   <si>
-    <t>4864312</t>
-  </si>
-  <si>
-    <t>4864412</t>
-  </si>
-  <si>
-    <t>4864512</t>
-  </si>
-  <si>
-    <t>4864612</t>
-  </si>
-  <si>
-    <t>4864712</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
     <t>c4</t>
   </si>
   <si>
     <t>c5</t>
+  </si>
+  <si>
+    <t>4864414</t>
+  </si>
+  <si>
+    <t>4864415</t>
+  </si>
+  <si>
+    <t>unique columns</t>
+  </si>
+  <si>
+    <t>4864416</t>
+  </si>
+  <si>
+    <t>4864417</t>
+  </si>
+  <si>
+    <t>4864418</t>
+  </si>
+  <si>
+    <t>4864419</t>
+  </si>
+  <si>
+    <t>DownloadsPath</t>
+  </si>
+  <si>
+    <t>C:\Users\SSUPRAJA-adm\Downloads</t>
+  </si>
+  <si>
+    <t>4864420</t>
+  </si>
+  <si>
+    <t>4864421</t>
+  </si>
+  <si>
+    <t>4864422</t>
+  </si>
+  <si>
+    <t>4864423</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,8 +180,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +199,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -194,11 +221,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,15 +533,16 @@
     <col min="17" max="17" width="16.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="93.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="20" max="20" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -566,8 +595,11 @@
       <c r="S1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -581,16 +613,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
@@ -623,12 +655,15 @@
         <v>9</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -640,7 +675,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -649,7 +684,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
@@ -682,10 +717,13 @@
         <v>9</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -699,16 +737,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>13</v>
@@ -741,10 +779,13 @@
         <v>9</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -758,7 +799,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -767,7 +808,7 @@
         <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>13</v>
@@ -800,10 +841,13 @@
         <v>9</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -817,7 +861,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -826,7 +870,7 @@
         <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>13</v>
@@ -859,7 +903,352 @@
         <v>9</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
